--- a/bookspcClassic/各主流编程语言语法易混比较分析.xlsx
+++ b/bookspcClassic/各主流编程语言语法易混比较分析.xlsx
@@ -59,13 +59,6 @@
     <t>变量</t>
   </si>
   <si>
-    <t>int x; 
-Integer x ; 
-char c; 
-Character c;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>var pi=3.14  
 var name=’tom’
 var label=”malloc”</t>
@@ -1240,6 +1233,13 @@
   <si>
     <t>输入
 输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int x; 
+Integer x ; 
+char c; 
+Character c;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1662,7 +1662,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1717,370 +1717,370 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="82.8">
       <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="125.25" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.549999999999997" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.8" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="96.6">
+      <c r="A8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="82.8">
-      <c r="A8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="107.55" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156.30000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="94.05" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="55.2">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="110.4">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
